--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/20/seed2/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/ABCF/20/seed2/result_data_RandomForest.xlsx
@@ -465,7 +465,7 @@
         <v>-21.2</v>
       </c>
       <c r="B2" t="n">
-        <v>6.600499999999995</v>
+        <v>6.485899999999999</v>
       </c>
       <c r="C2" t="n">
         <v>-10.8</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.47310000000003</v>
+        <v>-21.49600000000003</v>
       </c>
       <c r="B3" t="n">
         <v>4.54</v>
@@ -516,10 +516,10 @@
         <v>-23.4</v>
       </c>
       <c r="B5" t="n">
-        <v>4.799900000000004</v>
+        <v>4.666300000000003</v>
       </c>
       <c r="C5" t="n">
-        <v>-14.0012</v>
+        <v>-14.13380000000001</v>
       </c>
       <c r="D5" t="n">
         <v>-6.27</v>
@@ -559,7 +559,7 @@
         <v>-9.31</v>
       </c>
       <c r="E7" t="n">
-        <v>11.70629999999999</v>
+        <v>11.6149</v>
       </c>
     </row>
     <row r="8">
@@ -587,7 +587,7 @@
         <v>10.18</v>
       </c>
       <c r="C9" t="n">
-        <v>-11.63810000000001</v>
+        <v>-11.71870000000001</v>
       </c>
       <c r="D9" t="n">
         <v>-9.9</v>
@@ -621,13 +621,13 @@
         <v>6.01</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.5944</v>
+        <v>-13.64590000000001</v>
       </c>
       <c r="D11" t="n">
         <v>-8.01</v>
       </c>
       <c r="E11" t="n">
-        <v>13.19729999999999</v>
+        <v>13.4531</v>
       </c>
     </row>
     <row r="12">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-20.42399999999998</v>
+        <v>-20.44009999999998</v>
       </c>
       <c r="B14" t="n">
         <v>8.33</v>
@@ -700,10 +700,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.40900000000003</v>
+        <v>-21.49740000000002</v>
       </c>
       <c r="B16" t="n">
-        <v>5.276400000000002</v>
+        <v>5.350300000000003</v>
       </c>
       <c r="C16" t="n">
         <v>-9.779999999999999</v>
@@ -723,7 +723,7 @@
         <v>11.21</v>
       </c>
       <c r="C17" t="n">
-        <v>-11.6298</v>
+        <v>-11.5311</v>
       </c>
       <c r="D17" t="n">
         <v>-6.63</v>
@@ -763,7 +763,7 @@
         <v>-8.470000000000001</v>
       </c>
       <c r="E19" t="n">
-        <v>13.51209999999999</v>
+        <v>13.8003</v>
       </c>
     </row>
     <row r="20">
@@ -785,19 +785,19 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-21.1144</v>
+        <v>-21.34030000000001</v>
       </c>
       <c r="B21" t="n">
         <v>7.49</v>
       </c>
       <c r="C21" t="n">
-        <v>-11.3765</v>
+        <v>-11.2464</v>
       </c>
       <c r="D21" t="n">
         <v>-8.890000000000001</v>
       </c>
       <c r="E21" t="n">
-        <v>12.35209999999999</v>
+        <v>12.44500000000001</v>
       </c>
     </row>
     <row r="22">
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-21.48620000000002</v>
+        <v>-21.57230000000002</v>
       </c>
       <c r="B23" t="n">
         <v>5.8</v>
@@ -853,7 +853,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-22.55630000000004</v>
+        <v>-22.59170000000003</v>
       </c>
       <c r="B25" t="n">
         <v>5.09</v>
